--- a/biology/Botanique/Coteaux-de-saumur/Coteaux-de-saumur.xlsx
+++ b/biology/Botanique/Coteaux-de-saumur/Coteaux-de-saumur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le coteaux-de-saumur est un vin blanc moelleux d'appellation d'origine contrôlée produit sur une petite partie de Maine-et-Loire, des Deux-Sèvres et de la Vienne. Cette appellation fait partie du vignoble de la vallée de la Loire.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-C'est au IVe siècle que la vigne se propage sous l'impulsion de Saint Martin et ses disciples[4].
-Moyen Âge
-Au Xe siècle, grâce au développement des voies de communication, les vignobles de la Loire et donc de Saumur se développent[5]. Lorsque Henri II, comte d'Anjou, accède au trône d'Angleterre en 1154, le vignoble angevin connaît un véritable essor[5]. Du Moyen Âge au XVe siècle, le vignoble de Saumur est en pleine expansion de par l'action de la bourgeoisie[5]. À partir du XIIe siècle, Saumur devient une importante place de négoce des vins[6].
-Période contemporaine
-À partir de 1789, la Révolution française a des effets dévastateurs sur le vignoble, à travers les guerres de Vendée[5]. La crise du phyloxera touche durement le vignoble à la fin du XIXe siècle. Création de l'AOC en 1936[7]. Apparition de l'enjambeur dans les années 1960-70 qui remplace le cheval. Les techniques en viticulture et œnologie ont bien évolué depuis 50 ans (vendange en vert, table de triage, cuve en inox, pressoir électrique puis pneumatique etc.).
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est au IVe siècle que la vigne se propage sous l'impulsion de Saint Martin et ses disciples.
 </t>
         </is>
       </c>
@@ -545,18 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-Géologie
-Climat
-Le climat du Saumurois est plus continental que celui du reste du département. Il est plus sec et chaud l'été. Les nuages ayant perdu une partie de leur humidité, ils donnent moins de précipitations[8].
-Températures
-Insolation
-Tableau de la durée mensuelle d'ensoleillement (heures/mois) :
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Xe siècle, grâce au développement des voies de communication, les vignobles de la Loire et donc de Saumur se développent. Lorsque Henri II, comte d'Anjou, accède au trône d'Angleterre en 1154, le vignoble angevin connaît un véritable essor. Du Moyen Âge au XVe siècle, le vignoble de Saumur est en pleine expansion de par l'action de la bourgeoisie. À partir du XIIe siècle, Saumur devient une importante place de négoce des vins.
 </t>
         </is>
       </c>
@@ -582,26 +595,361 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 1789, la Révolution française a des effets dévastateurs sur le vignoble, à travers les guerres de Vendée. La crise du phyloxera touche durement le vignoble à la fin du XIXe siècle. Création de l'AOC en 1936. Apparition de l'enjambeur dans les années 1960-70 qui remplace le cheval. Les techniques en viticulture et œnologie ont bien évolué depuis 50 ans (vendange en vert, table de triage, cuve en inox, pressoir électrique puis pneumatique etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat du Saumurois est plus continental que celui du reste du département. Il est plus sec et chaud l'été. Les nuages ayant perdu une partie de leur humidité, ils donnent moins de précipitations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Températures</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Insolation</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tableau de la durée mensuelle d'ensoleillement (heures/mois) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Ce vignoble, classé AOC depuis 1962 (dernier arrêté publié le 29 août 2002), s'étend sur 50 hectares dans 2 communes du département des Deux-Sèvres, 20 de Maine-et-Loire et 9 de la Vienne.
-Encépagement
-Le seul cépage utilisé est le chenin B.
-Techniques culturales et réglementaires
-Le chenin est récolté manuellement par tries successives.
-Vinification
-Les vins des coteaux de Saumur sont vinifiés en blanc moelleux à partir du chenin[9].
-Ces vins blancs sont élaborés à partir de raisins qui possèdent, à la vendange, une très riche concentration en sucres. Après les vendanges le vin est obtenu par un pressurage lent, puis un débourbage afin de le clarifier. La fermentation alcoolique est thermorégulée et l'arrêt des fermentations se fait par sulfitage. Viennent ensuite le soutirage, puis une réfrigération pour obtenir une filtration[9].
-Terroirs et vins
-Ces vins vieillissent très bien en bouteille (jusqu'à 15 ans).
-Structure du vignoble
-Gastronomie
-Un coteau-de-saumur peut accompagner une tarte tatin au foie gras, une crème brûlée au foie gras, un feuilleté au foie gras, une tranche de foie gras poêlée, une mousse de saumon, un poulet à l'antillaise, un carré de porc au miel, un crumble aux pommes ou un gâteau bavarois[10].
-Pour des recettes plus sophistiquées comme la brouillade de saumon fumé en coquilles, le sandre de Loire rôti, galipette, artichaut et huile de Cameline, le filet de bœuf façon Rossini, avec ses mini légumes croquants et sauce madère ou le pavé de maigre sur jeunes pousses d’épinards et son coulis de betteraves balsamique, ce vin de Saumur propose un mariage parfait[11]
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vignoble, classé AOC depuis 1962 (dernier arrêté publié le 29 août 2002), s'étend sur 50 hectares dans 2 communes du département des Deux-Sèvres, 20 de Maine-et-Loire et 9 de la Vienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seul cépage utilisé est le chenin B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Techniques culturales et réglementaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chenin est récolté manuellement par tries successives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins des coteaux de Saumur sont vinifiés en blanc moelleux à partir du chenin.
+Ces vins blancs sont élaborés à partir de raisins qui possèdent, à la vendange, une très riche concentration en sucres. Après les vendanges le vin est obtenu par un pressurage lent, puis un débourbage afin de le clarifier. La fermentation alcoolique est thermorégulée et l'arrêt des fermentations se fait par sulfitage. Viennent ensuite le soutirage, puis une réfrigération pour obtenir une filtration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Terroirs et vins</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces vins vieillissent très bien en bouteille (jusqu'à 15 ans).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-saumur</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un coteau-de-saumur peut accompagner une tarte tatin au foie gras, une crème brûlée au foie gras, un feuilleté au foie gras, une tranche de foie gras poêlée, une mousse de saumon, un poulet à l'antillaise, un carré de porc au miel, un crumble aux pommes ou un gâteau bavarois.
+Pour des recettes plus sophistiquées comme la brouillade de saumon fumé en coquilles, le sandre de Loire rôti, galipette, artichaut et huile de Cameline, le filet de bœuf façon Rossini, avec ses mini légumes croquants et sauce madère ou le pavé de maigre sur jeunes pousses d’épinards et son coulis de betteraves balsamique, ce vin de Saumur propose un mariage parfait
 </t>
         </is>
       </c>
